--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinu_akkineni/Desktop/SoftHouse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Desktop/Team-1/Skill_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>As a user, I want to login to the system. Here, user can be line manager, site manager and employee.</t>
-  </si>
-  <si>
     <t>Site Manager Login</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>As a user, I should be able to know the number of employees, site mangers and line managers for each site</t>
+  </si>
+  <si>
+    <t>As a user, I want to login to the system. Here, user can be line manager, site manager or employee.</t>
+  </si>
+  <si>
+    <t>Is to create a webpage using bootstrap and AngularJS containing two input fields (UserName and PassWord), two buttons (Register and LogIn), a Remember me check box</t>
   </si>
 </sst>
 </file>
@@ -547,12 +550,13 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2">
         <v>1</v>
@@ -593,9 +597,11 @@
         <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -607,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -627,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -644,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -661,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -674,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="26" x14ac:dyDescent="0.2">
@@ -685,10 +691,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="26" x14ac:dyDescent="0.2">
@@ -696,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.2">
@@ -707,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="26" x14ac:dyDescent="0.2">
@@ -718,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="26" x14ac:dyDescent="0.2">
@@ -729,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="26" x14ac:dyDescent="0.2">
@@ -740,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="39" x14ac:dyDescent="0.2">
@@ -751,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -131,13 +131,22 @@
   </si>
   <si>
     <t>Is to create a webpage using bootstrap and AngularJS containing two input fields (UserName and PassWord), two buttons (Register and LogIn), a Remember me check box</t>
+  </si>
+  <si>
+    <t>Is to put up a user level dropdown box (like line or site manager or empolyee) to identify the user how is loging in and create classes using relavent access modifiers to define the boundaries for the user (Site manager in this case).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is to  setup an input field in the user page listing out the skills of the respective individual </t>
+  </si>
+  <si>
+    <t>Is to put up a settings dropbox containing the logout button which is carried in all pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +170,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -217,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,7 +620,7 @@
       <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1"/>
@@ -607,7 +628,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="79" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>2</v>
@@ -618,13 +639,15 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <v>3</v>
@@ -635,13 +658,15 @@
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <v>4</v>
@@ -652,7 +677,9 @@
       <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -669,7 +696,7 @@
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -685,6 +712,7 @@
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
@@ -696,6 +724,7 @@
       <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
@@ -707,6 +736,7 @@
       <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
@@ -718,6 +748,7 @@
       <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
@@ -729,6 +760,7 @@
       <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
@@ -740,6 +772,7 @@
       <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
@@ -751,6 +784,7 @@
       <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="39" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
@@ -762,6 +796,85 @@
       <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Desktop/Team-1/Skill_DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\soft-house\Documents\Skill_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Estimated effort</t>
-  </si>
-  <si>
     <t>Assigned to</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>As a user, I want to login to the system. Here, user can be line manager, site manager or employee.</t>
   </si>
   <si>
-    <t>Is to create a webpage using bootstrap and AngularJS containing two input fields (UserName and PassWord), two buttons (Register and LogIn), a Remember me check box</t>
-  </si>
-  <si>
     <t>Is to put up a user level dropdown box (like line or site manager or empolyee) to identify the user how is loging in and create classes using relavent access modifiers to define the boundaries for the user (Site manager in this case).</t>
   </si>
   <si>
@@ -140,6 +134,45 @@
   </si>
   <si>
     <t>Is to put up a settings dropbox containing the logout button which is carried in all pages</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>The statistics should be in the dashboard on login screen, where the top 5 skills should be presented and last updated user as well.</t>
+  </si>
+  <si>
+    <t>No need of any special design, the same design used for site-manager can be used here as well except the access rights, this can be solved by the type of designation used while logging in.</t>
+  </si>
+  <si>
+    <t>Just need to print his own profile using the credentials provided while logging in.</t>
+  </si>
+  <si>
+    <t>Is to create a webpage using bootstrap and AngularJS containing two input fields (UserName and PassWord, Designation(important for sorting the accessability settings)), two buttons (Register and LogIn), a Remember me check box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal registration page with name, email, password, picture (may be). Need clarification wether any approval required by higher role people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A form should be created where the name of user, site(location) and a short presentation. Input box for adding skills via a typeahead, rating(1-5), comment box as well.  </t>
+  </si>
+  <si>
+    <t>The last updated time should be stored whenever the edit option is used.</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>Estimated effort (Hours)</t>
+  </si>
+  <si>
+    <t>Search Page</t>
+  </si>
+  <si>
+    <t>Search profiles by skill, site, user type (site manager, line manager and employee), manager, level and combinations thereof.</t>
+  </si>
+  <si>
+    <t>Need to have three options where the user should be able to type the skills, site. The information should be presendted by sorting according to the designation used while logging-in.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,9 +291,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -276,6 +306,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -568,21 +601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J41"/>
+  <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -600,281 +633,319 @@
         <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="79" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="39" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="26" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" ht="26" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" ht="26" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="39" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="11"/>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,7 +959,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -900,7 +971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\soft-house\Documents\Skill_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\soft-house\Documents\Skill_DB\Skill_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -604,7 +604,7 @@
   <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,9 @@
       <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>

--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\soft-house\Documents\Skill_DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +80,7 @@
     <t>As a user, I want to view the skills and history of the skill set</t>
   </si>
   <si>
-    <t>Is to  setup an input field in the user page listing out the skills of the respective individual </t>
+    <t>Is to  setup an input field in the user page listing out the skills of the respective individual</t>
   </si>
   <si>
     <t>Logout</t>
@@ -106,27 +110,18 @@
     <t>As a line manager, I should be able to access the info of employees.</t>
   </si>
   <si>
-    <t>No need of any special design, the same design used for site-manager can be used here as well except the access rights, this can be solved by the type of designation used while logging in.</t>
-  </si>
-  <si>
     <t>Employee Login</t>
   </si>
   <si>
     <t>As a employee, I should not be able to acess the info of line managers and site managers. I can only see myself.</t>
   </si>
   <si>
-    <t>Just need to print his own profile using the credentials provided while logging in.</t>
-  </si>
-  <si>
     <t>Registration page</t>
   </si>
   <si>
     <t>As a user, I should be registered into the system.</t>
   </si>
   <si>
-    <t>Normal registration page with name, email, password, picture (may be). Need clarification wether any approval required by higher role people. </t>
-  </si>
-  <si>
     <t>prasanth</t>
   </si>
   <si>
@@ -145,7 +140,7 @@
     <t>As a user, I should be able to enter the type of skills I had.</t>
   </si>
   <si>
-    <t>A form should be created where the name of user, site(location) and a short presentation. Input box for adding skills via a typeahead, rating(1-5), comment box as well.  </t>
+    <t>A form should be created where the name of user, site(location) and a short presentation. Input box for adding skills via a typeahead, rating(1-5), comment box as well.</t>
   </si>
   <si>
     <t>Skill set level</t>
@@ -179,16 +174,25 @@
   </si>
   <si>
     <t>Not required</t>
+  </si>
+  <si>
+    <t>On dashboard in login screen, the top 5 skills should be retrieved automatically using backend and a graph should be generated with number of people in each skills, once the graph is generated it can be retrieved to front-end using img src tag in HTML.</t>
+  </si>
+  <si>
+    <t>In search page, need to put three input boxes where the user should be able to type the skills, site. The input is transferred by pressing search button then the request is sent to backend and then the database is sorted with the given inputs and login credentials.</t>
+  </si>
+  <si>
+    <t>Based on the designation input given, the java-script should be used in backend with different access modifiers.</t>
+  </si>
+  <si>
+    <t>Normal registration page inout options with name, email, password, picture (may be). After the input is given it should be added to the database using backend connection. Need clarification wether any approval required by higher role people.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,28 +202,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -249,14 +238,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -271,7 +260,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -283,81 +272,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -416,34 +368,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2874493927125"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.85425101214575"/>
+    <col min="1" max="4" width="8.85546875"/>
+    <col min="5" max="5" width="42.7109375"/>
+    <col min="6" max="6" width="30.28515625"/>
+    <col min="7" max="9" width="8.85546875"/>
+    <col min="11" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -470,11 +694,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -489,19 +713,19 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -520,11 +744,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -541,11 +765,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:10" ht="39" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -562,11 +786,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:10" ht="102" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -576,18 +800,18 @@
         <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -597,204 +821,179 @@
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="102" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="F11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9" t="s">
+    <row r="13" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -172,13 +172,20 @@
     <t>As a user, I should be able to see the dashboard in login page</t>
   </si>
   <si>
+    <t>F: Dashboard should have statistics. These statistics will be shown on the login page, which is front end.
+B: Statistics request will goto back end and upon communicating with the H2 database, the response form back end goes to front end.   Connection between front end and back end will be activated.
+D: Statistics were showed based on the data in H2 database. So database will be accessed during this process. JDBC connection will be established to retrieve the data.</t>
+  </si>
+  <si>
     <t>Employee per site</t>
   </si>
   <si>
     <t>As a user, I should be able to know the number of employees, site mangers and line managers for each site</t>
   </si>
   <si>
-    <t>Not required</t>
+    <t>F:  These statistics regarding the number of line managers, site managers and employees will be shown on the login page, which is front end.
+ B: Statistics request will goto back end and upon communicating with the H2 database, the response form back end goes to front end.   Connection between front end and back end will be activated.
+ D: Statistics were showed based on the data in H2 database. So database will be accessed during this process. JDBC connection will be established to retrieve the data.</t>
   </si>
 </sst>
 </file>
@@ -428,8 +435,8 @@
   </sheetPr>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,7 +709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>48</v>
       </c>
@@ -716,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="183.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>48</v>
       </c>
@@ -727,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Skill_DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +80,7 @@
     <t>As a user, I want to view the skills and history of the skill set</t>
   </si>
   <si>
-    <t>Is to  setup an input field in the user page listing out the skills of the respective individual </t>
+    <t>Is to  setup an input field in the user page listing out the skills of the respective individual</t>
   </si>
   <si>
     <t>Logout</t>
@@ -124,10 +128,7 @@
     <t>As a user, I should be registered into the system.</t>
   </si>
   <si>
-    <t>Normal registration page with name, email, password, picture (may be). Need clarification wether any approval required by higher role people. </t>
-  </si>
-  <si>
-    <t>prasanth</t>
+    <t>Normal registration page with name, email, password, picture (may be). Need clarification wether any approval required by higher role people.</t>
   </si>
   <si>
     <t>Search Page</t>
@@ -136,18 +137,12 @@
     <t>Search profiles by skill, site, user type (site manager, line manager and employee), manager, level and combinations thereof.</t>
   </si>
   <si>
-    <t>Need to have three options where the user should be able to type the skills, site. The information should be presendted by sorting according to the designation used while logging-in.</t>
-  </si>
-  <si>
     <t>Skill set entry</t>
   </si>
   <si>
     <t>As a user, I should be able to enter the type of skills I had.</t>
   </si>
   <si>
-    <t>A form should be created where the name of user, site(location) and a short presentation. Input box for adding skills via a typeahead, rating(1-5), comment box as well.  </t>
-  </si>
-  <si>
     <t>Skill set level</t>
   </si>
   <si>
@@ -160,9 +155,6 @@
     <t>As a user, I should be able to know when the profile is changed</t>
   </si>
   <si>
-    <t>The last updated time should be stored whenever the edit option is used.</t>
-  </si>
-  <si>
     <t>srinu</t>
   </si>
   <si>
@@ -179,16 +171,36 @@
   </si>
   <si>
     <t>Not required</t>
+  </si>
+  <si>
+    <t>prashanth</t>
+  </si>
+  <si>
+    <t>F- The user selects the search criteria from the drop down menu.
+B- The appropriate query is created in Java and the query is sent to H2 as a string.
+D- H2 executes the query and produces the required output.</t>
+  </si>
+  <si>
+    <t>F- Using typeahead, we create a form for the user to enter his/her skills.
+B- The skills are sent to the H2 database by using JDBC.
+D- The database stores the skill set corresponding to a user.</t>
+  </si>
+  <si>
+    <t>F- A form should be created where the name of user, site(location) and a short presentation. Input box for adding skills via a typeahead, rating(1-5), comment box as well.
+B- The entered information is collected and is sent to the H2 database by using JDBC.
+D- The database stores the information passed to it by JDBC.</t>
+  </si>
+  <si>
+    <t>F- The last updated time should be stored whenever the edit option is used.
+B- The Java code should store the timestamp whenever the edit button is used.
+D- None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,28 +210,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -249,14 +246,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -271,7 +268,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -283,81 +280,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -416,34 +376,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2874493927125"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.85425101214575"/>
+    <col min="1" max="4" width="8.85546875"/>
+    <col min="5" max="5" width="42.7109375"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875"/>
+    <col min="11" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -470,11 +702,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -489,19 +721,19 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -520,11 +752,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -541,11 +773,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:10" ht="39" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -562,11 +794,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -583,11 +815,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -600,11 +832,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -617,11 +849,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -634,167 +866,142 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/User_stories.xlsx
+++ b/User_stories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -172,20 +172,13 @@
     <t>As a user, I should be able to see the dashboard in login page</t>
   </si>
   <si>
-    <t>F: Dashboard should have statistics. These statistics will be shown on the login page, which is front end.
-B: Statistics request will goto back end and upon communicating with the H2 database, the response form back end goes to front end.   Connection between front end and back end will be activated.
-D: Statistics were showed based on the data in H2 database. So database will be accessed during this process. JDBC connection will be established to retrieve the data.</t>
-  </si>
-  <si>
     <t>Employee per site</t>
   </si>
   <si>
     <t>As a user, I should be able to know the number of employees, site mangers and line managers for each site</t>
   </si>
   <si>
-    <t>F:  These statistics regarding the number of line managers, site managers and employees will be shown on the login page, which is front end.
- B: Statistics request will goto back end and upon communicating with the H2 database, the response form back end goes to front end.   Connection between front end and back end will be activated.
- D: Statistics were showed based on the data in H2 database. So database will be accessed during this process. JDBC connection will be established to retrieve the data.</t>
+    <t>Not required</t>
   </si>
 </sst>
 </file>
@@ -435,8 +428,8 @@
   </sheetPr>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,7 +702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>48</v>
       </c>
@@ -723,10 +716,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="183.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>48</v>
       </c>
@@ -734,13 +727,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
